--- a/stat.xlsx
+++ b/stat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>Статистика по словам</t>
   </si>
@@ -196,13 +196,133 @@
   </si>
   <si>
     <t>купить детскую одежду спб</t>
+  </si>
+  <si>
+    <t>Есть переадресация с //, /, /index.html</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/index.html</t>
+  </si>
+  <si>
+    <t>доступна</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io//</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io///</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io//////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io///////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io////////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/////////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io//////////</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/?</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io/index</t>
+  </si>
+  <si>
+    <t>https://nowblepro.github.io</t>
+  </si>
+  <si>
+    <t>Сниппеты</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить одежду для женщин, мужчин, детей и военных в спб 😀 [лучише цены] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt;👦👧 Одежда на любой вкус в спб для детей и их родителей. 😎 Так же у нас есть верхняя одежда. У нас намного дешевле. Одежда для военных или же тактическая. 😎 Женская и мужская одежда на любое время года .&lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>Конкуренты</t>
+  </si>
+  <si>
+    <t>hitchhikers.ru</t>
+  </si>
+  <si>
+    <t>Минусы</t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>Не равномерный размер блоков, из-за этого сайт не подстраивается под разные разрешения мониторов, поэтому все выглядит неуклюже.</t>
+  </si>
+  <si>
+    <t>Сделать равномерные блоки. Адаптировать сайт под разные мониторы и их разрешения.</t>
+  </si>
+  <si>
+    <t>https://mynamestore.ru/</t>
+  </si>
+  <si>
+    <t>Интерактивность</t>
+  </si>
+  <si>
+    <t>Вывод</t>
+  </si>
+  <si>
+    <t>Интерактивности мало, сайт минималистичен, присутствует слайдер небольшой</t>
+  </si>
+  <si>
+    <t>Интерактивновти мало, нужно дороботать</t>
+  </si>
+  <si>
+    <t>Не подходящий цвет шрифта относительно фона. Видео плеер не должен появляться. При нажатие на картинки выводит на не существующую страницу. Нет страницы ERROR 404.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определить самый благоприятный для глаза цвет шрифта относительно фона. Сделать плеер не интерактивным для гостя. </t>
+  </si>
+  <si>
+    <t>Интерактивности нет, сайт практически одностраничник</t>
+  </si>
+  <si>
+    <t>Добавить интерактив, слайдер как минимум</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +351,42 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,13 +408,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,34 +709,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -580,8 +768,20 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2">
+        <v>200</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -594,8 +794,20 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -608,8 +820,20 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -622,8 +846,20 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -636,8 +872,20 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -650,8 +898,20 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -664,8 +924,20 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -678,8 +950,20 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -692,8 +976,20 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -706,8 +1002,20 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11">
+        <v>200</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -720,8 +1028,20 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -734,8 +1054,20 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <v>200</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -748,8 +1080,20 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <v>200</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -762,8 +1106,20 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>200</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -777,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -790,8 +1146,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -804,8 +1163,14 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -818,8 +1183,14 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -833,7 +1204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -847,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -861,7 +1232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -875,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -889,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -903,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -917,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -931,7 +1302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -945,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -959,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -973,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -987,7 +1358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1225,7 +1596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1239,7 +1610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1251,6 +1622,62 @@
       </c>
       <c r="D50" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>Статистика по словам</t>
   </si>
@@ -267,12 +267,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>&lt;title&gt; Купить одежду для женщин, мужчин, детей и военных в спб 😀 [лучише цены] &lt;/title&gt;</t>
-  </si>
-  <si>
-    <t>&lt;description&gt;👦👧 Одежда на любой вкус в спб для детей и их родителей. 😎 Так же у нас есть верхняя одежда. У нас намного дешевле. Одежда для военных или же тактическая. 😎 Женская и мужская одежда на любое время года .&lt;/description&gt;</t>
-  </si>
-  <si>
     <t>Конкуренты</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>Решение</t>
   </si>
   <si>
-    <t>Не равномерный размер блоков, из-за этого сайт не подстраивается под разные разрешения мониторов, поэтому все выглядит неуклюже.</t>
-  </si>
-  <si>
     <t>Сделать равномерные блоки. Адаптировать сайт под разные мониторы и их разрешения.</t>
   </si>
   <si>
@@ -316,6 +307,63 @@
   </si>
   <si>
     <t>Добавить интерактив, слайдер как минимум</t>
+  </si>
+  <si>
+    <t>Не равномерный размер блоков, горизонтальный скрол, поэтому все выглядит неуклюже.</t>
+  </si>
+  <si>
+    <t>&lt;description&gt;👦👧 Одежда на любой вкус в спб для детей и их родителей. 😎 Женская и мужская одежда на любое время года. У нас намного дешевле. &lt;/description&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Главная </t>
+  </si>
+  <si>
+    <t>Мужская</t>
+  </si>
+  <si>
+    <t>Женская</t>
+  </si>
+  <si>
+    <t>Детская</t>
+  </si>
+  <si>
+    <t>Военная</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить одежду для женщин, мужчин, детей и военных в спб 😀 [лучшие цены] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить одежду для женщин. 👧 Пальто, шубы, летняя одежда для девушек. 😀 [большой выбор] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить одежду для мужчин. 👦 Оверсайз. Костюмы. 😀 [отличное качество] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить военную одежду. 😋 Тактическая форма. Для охоты.  😀 [огромные скидки] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; Купить одежду для детей. 😇 Любых размеров и для любых возрастов.😀  [быстрая доставка] &lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt; 😎 Брутальная и простая, вызывающая и скромная. Разные виды верхней одежды. На лето и зиму, осень и весну. Покупайте.  &lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt;  😀 Для прекрасных дам. Для отдыха, рабочая, домашняя, на прогулку. 😎  На любое время года. Подойдет каждой.  &lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt;  Для любого возраста. 😀  Любые размеры. Акции и специальные предложения. 😎 Только у нас. Ваш ребенок будет доволен. &lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt; 😀 Также у нас есть специальная верхняя одежда. 😎  Одежда для военных или же тактическая. Для походов и путешествий. &lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>Уникальность</t>
+  </si>
+  <si>
+    <t>Сервис</t>
+  </si>
+  <si>
+    <t>etxt.ru</t>
   </si>
 </sst>
 </file>
@@ -396,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -404,11 +452,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,7 +541,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +553,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +858,10 @@
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="38.140625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
@@ -730,28 +869,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1133,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1146,11 +1285,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1163,14 +1302,29 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1183,14 +1337,29 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1203,8 +1372,29 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1217,8 +1407,29 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1231,8 +1442,29 @@
       <c r="D22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1245,8 +1477,29 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1259,8 +1512,29 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1273,8 +1547,29 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1287,8 +1582,29 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1301,8 +1617,29 @@
       <c r="D27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1329,8 +1666,15 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1343,8 +1687,17 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1357,8 +1710,17 @@
       <c r="D31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1371,8 +1733,17 @@
       <c r="D32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1385,8 +1756,17 @@
       <c r="D33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1399,8 +1779,17 @@
       <c r="D34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1470,7 +1859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +1887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1526,7 +1915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1540,7 +1929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1554,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1582,7 +1971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -1630,54 +2019,54 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="B57" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="E57" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
   <si>
     <t>Статистика по словам</t>
   </si>
@@ -364,13 +364,79 @@
   </si>
   <si>
     <t>etxt.ru</t>
+  </si>
+  <si>
+    <t>yandex.ru</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Картинки</t>
+  </si>
+  <si>
+    <t>уникальны</t>
+  </si>
+  <si>
+    <t>Внешних ссылок</t>
+  </si>
+  <si>
+    <t>Ключевые слова</t>
+  </si>
+  <si>
+    <t>lamoda.ru</t>
+  </si>
+  <si>
+    <t>stockmann.ru</t>
+  </si>
+  <si>
+    <t>девочек, одежда, других, мальчиков, кроссовки, аксессуары</t>
+  </si>
+  <si>
+    <t>Куртка, Категория,  бренд, Брюки, утепленная, Джинсы</t>
+  </si>
+  <si>
+    <t>street-beat.ru</t>
+  </si>
+  <si>
+    <t>Fleece, Sportswear, Hoodie,  Jacket,  Pants</t>
+  </si>
+  <si>
+    <t>oodji.com</t>
+  </si>
+  <si>
+    <t>Платье, Футболка,  хлопковая, силуэта, Джемпер</t>
+  </si>
+  <si>
+    <t>tvoe.ru</t>
+  </si>
+  <si>
+    <t>Футболка, принтом, худи</t>
+  </si>
+  <si>
+    <t>Уникальность до</t>
+  </si>
+  <si>
+    <t>Уникальность после</t>
+  </si>
+  <si>
+    <t>Анкор</t>
+  </si>
+  <si>
+    <t>Колл.</t>
+  </si>
+  <si>
+    <t>продвигаемая страница</t>
+  </si>
+  <si>
+    <t>Lamoda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +501,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF323C4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323C4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -529,11 +609,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -563,8 +693,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -847,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,9 +1049,9 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
@@ -1666,12 +1858,30 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>112</v>
+      <c r="G29" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="L29" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1687,14 +1897,30 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="36">
         <v>1</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="L30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="30">
+        <v>3280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1713,11 +1939,22 @@
       <c r="E31" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="35">
+        <v>0.68</v>
+      </c>
+      <c r="H31" s="36">
         <v>1</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="45">
+        <v>1679</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1679</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1736,14 +1973,25 @@
       <c r="E32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="35">
+        <v>0.65</v>
+      </c>
+      <c r="H32" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="37"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="45">
+        <v>440</v>
+      </c>
+      <c r="N32" s="30">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1759,14 +2007,25 @@
       <c r="E33" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="35">
+        <v>0.88</v>
+      </c>
+      <c r="H33" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="37"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="45">
+        <v>2167</v>
+      </c>
+      <c r="N33" s="30">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1782,14 +2041,25 @@
       <c r="E34" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="36">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="45">
+        <v>2190</v>
+      </c>
+      <c r="N34" s="30">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1803,7 +2073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1816,8 +2086,17 @@
       <c r="D36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1830,8 +2109,17 @@
       <c r="D37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1844,8 +2132,17 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1858,8 +2155,17 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1872,8 +2178,17 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1886,8 +2201,17 @@
       <c r="D41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1901,7 +2225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1914,8 +2238,21 @@
       <c r="D43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1928,8 +2265,21 @@
       <c r="D44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="30">
+        <v>3280</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1942,8 +2292,21 @@
       <c r="D45" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="30">
+        <v>1679</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1956,8 +2319,21 @@
       <c r="D46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="30">
+        <v>440</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1970,8 +2346,21 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="30">
+        <v>2167</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -1984,6 +2373,19 @@
       <c r="D48" t="s">
         <v>31</v>
       </c>
+      <c r="E48" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="30">
+        <v>2190</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2073,6 +2475,20 @@
   <sortState ref="A2:D50">
     <sortCondition ref="D2:D50"/>
   </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="156">
   <si>
     <t>Статистика по словам</t>
   </si>
@@ -390,9 +390,6 @@
     <t>stockmann.ru</t>
   </si>
   <si>
-    <t>девочек, одежда, других, мальчиков, кроссовки, аксессуары</t>
-  </si>
-  <si>
     <t>Куртка, Категория,  бренд, Брюки, утепленная, Джинсы</t>
   </si>
   <si>
@@ -426,22 +423,90 @@
     <t>Колл.</t>
   </si>
   <si>
-    <t>продвигаемая страница</t>
-  </si>
-  <si>
     <t>Lamoda</t>
+  </si>
+  <si>
+    <t>www.lamoda.ru</t>
+  </si>
+  <si>
+    <t>подробнее</t>
+  </si>
+  <si>
+    <t>на сайте партнера</t>
+  </si>
+  <si>
+    <t>Перейти</t>
+  </si>
+  <si>
+    <t>Платье</t>
+  </si>
+  <si>
+    <t>Туфли</t>
+  </si>
+  <si>
+    <t>Кроссовки</t>
+  </si>
+  <si>
+    <t>главная</t>
+  </si>
+  <si>
+    <t>платья</t>
+  </si>
+  <si>
+    <t>туфли</t>
+  </si>
+  <si>
+    <t>кроссовки</t>
+  </si>
+  <si>
+    <t>Продвигаемая страница</t>
+  </si>
+  <si>
+    <t>изображения</t>
+  </si>
+  <si>
+    <t>анкорные</t>
+  </si>
+  <si>
+    <t>нейтральные</t>
+  </si>
+  <si>
+    <t>Распределение анкоров по количеству</t>
+  </si>
+  <si>
+    <t>Колличество</t>
+  </si>
+  <si>
+    <t>Девочек, одежда, других, мальчиков, кроссовки, аксессуары</t>
+  </si>
+  <si>
+    <t>Анкор лист моего сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>брендовые</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,20 +566,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF323C4D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF323C4D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,7 +575,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -659,21 +710,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -683,51 +758,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -736,27 +808,53 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1037,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,9 +1153,11 @@
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="38.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="41.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1073,16 +1173,16 @@
       <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="52" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1099,16 +1199,16 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="44">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="44">
         <v>200</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1125,16 +1225,16 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="44">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="44">
         <v>200</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1151,16 +1251,16 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="44">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="44">
         <v>200</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1177,16 +1277,16 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="44">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="44">
         <v>200</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1203,16 +1303,16 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="44">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="44">
         <v>200</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1229,16 +1329,16 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="44">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="44">
         <v>200</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1255,16 +1355,16 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="44">
         <v>7</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="44">
         <v>200</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1281,16 +1381,16 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="44">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="44">
         <v>200</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1307,16 +1407,16 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="44">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="44">
         <v>200</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1333,16 +1433,16 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="44">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="44">
         <v>200</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1359,16 +1459,16 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="44">
         <v>11</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="44">
         <v>200</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1385,16 +1485,16 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="44">
         <v>12</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="44">
         <v>200</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1411,16 +1511,16 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="44">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="44">
         <v>200</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1437,16 +1537,16 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="44">
         <v>14</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="44">
         <v>200</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="44" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1845,7 +1945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1858,30 +1958,21 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="I29" s="34"/>
+      <c r="L29" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="L29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1897,30 +1988,30 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="24">
         <v>0.6</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>1</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="L30" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" s="30">
-        <v>3280</v>
-      </c>
-      <c r="O30" t="s">
-        <v>30</v>
+      <c r="I30" s="36"/>
+      <c r="L30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1936,25 +2027,30 @@
       <c r="D31" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="24">
         <v>0.68</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>1</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="45">
-        <v>1679</v>
-      </c>
-      <c r="N31" s="30">
-        <v>1679</v>
+      <c r="I31" s="36"/>
+      <c r="L31" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="N31" s="40">
+        <v>411</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1970,28 +2066,31 @@
       <c r="D32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="24">
         <v>0.65</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>1</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="45">
-        <v>440</v>
-      </c>
-      <c r="N32" s="30">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="36"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="40">
+        <v>296</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2004,28 +2103,31 @@
       <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="24">
         <v>0.88</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>1</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="45">
-        <v>2167</v>
-      </c>
-      <c r="N33" s="30">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="36"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="40">
+        <v>142</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2038,28 +2140,31 @@
       <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="24">
         <v>1</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>1</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="45">
-        <v>2190</v>
-      </c>
-      <c r="N34" s="30">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="36"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="40">
+        <v>80</v>
+      </c>
+      <c r="O34" s="44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2072,8 +2177,18 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L35" s="48"/>
+      <c r="M35" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="40">
+        <v>67</v>
+      </c>
+      <c r="O35" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2086,17 +2201,27 @@
       <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L36" s="48"/>
+      <c r="M36" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36" s="41">
+        <v>53</v>
+      </c>
+      <c r="O36" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2109,17 +2234,27 @@
       <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L37" s="48"/>
+      <c r="M37" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" s="41">
+        <v>40</v>
+      </c>
+      <c r="O37" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2132,17 +2267,27 @@
       <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L38" s="48"/>
+      <c r="M38" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" s="41">
+        <v>40</v>
+      </c>
+      <c r="O38" s="44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2155,17 +2300,27 @@
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L39" s="48"/>
+      <c r="M39" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="54">
+        <v>41</v>
+      </c>
+      <c r="O39" s="55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2178,17 +2333,32 @@
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L40" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2201,17 +2371,32 @@
       <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L41" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M41" s="44">
+        <v>606</v>
+      </c>
+      <c r="N41" s="41">
+        <v>121</v>
+      </c>
+      <c r="O41" s="44">
+        <v>1477</v>
+      </c>
+      <c r="P41" s="57">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2225,7 +2410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2238,21 +2423,8 @@
       <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2265,21 +2437,21 @@
       <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="30">
-        <v>3280</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="26"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2292,21 +2464,21 @@
       <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="30">
-        <v>1679</v>
-      </c>
-      <c r="G45" s="27" t="s">
+      <c r="E45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="22">
+        <v>3280</v>
+      </c>
+      <c r="G45" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="51"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2319,21 +2491,21 @@
       <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="30">
-        <v>440</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1679</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2346,21 +2518,21 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="30">
-        <v>2167</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="22">
+        <v>440</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="51"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2373,21 +2545,21 @@
       <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="30">
-        <v>2190</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="22">
+        <v>2167</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="51"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2572,21 @@
       <c r="D49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="22">
+        <v>2190</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2415,12 +2600,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>82</v>
       </c>
@@ -2437,7 +2622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>83</v>
       </c>
@@ -2454,7 +2639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>87</v>
       </c>
@@ -2469,25 +2654,484 @@
       </c>
       <c r="E57" s="8" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="46">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="46">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="46">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="46">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="46">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="46">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="46">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="46">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="46">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="46">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="46">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="46">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="46">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="46">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="46">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="46">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="46">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="46">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="46">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="46">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="46">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="46">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="46">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="46">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="46">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="46">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="46">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="46">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="46">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="46">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="46">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="46">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="46">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="46">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="46">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="46">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="46">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="46">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="46">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="46">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="46">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="46">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="46">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="46">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="46">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="46">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="46">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="46">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="46">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="46">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D50">
     <sortCondition ref="D2:D50"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="G43:K43"/>
+  <mergeCells count="13">
+    <mergeCell ref="L31:L39"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G44:K44"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
